--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Firsname</t>
   </si>
@@ -43,27 +42,6 @@
   </si>
   <si>
     <t>Start123@</t>
-  </si>
-  <si>
-    <t>Abc</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>Abcd@123</t>
-  </si>
-  <si>
-    <t>zxcv</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>cscsv@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -421,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,52 +448,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>12331</v>
-      </c>
-      <c r="E4">
-        <v>12222</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="E3" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -529,16 +469,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>